--- a/FileImportData.xlsx
+++ b/FileImportData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -175,9 +175,6 @@
     <t>GradYear</t>
   </si>
   <si>
-    <t>Lê Công Hoàng</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>Quận 7</t>
   </si>
   <si>
-    <t>Hồ Chí Minh</t>
-  </si>
-  <si>
     <t>Ninh Thuận</t>
   </si>
   <si>
@@ -208,9 +202,6 @@
     <t>Tiếng Việt</t>
   </si>
   <si>
-    <t>Đã tốt nghiệp</t>
-  </si>
-  <si>
     <t>ChuiLoRa</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
     <t>Lào Cai</t>
   </si>
   <si>
-    <t>01-05-1995</t>
-  </si>
-  <si>
     <t>12-12-2005</t>
   </si>
   <si>
@@ -265,9 +253,6 @@
     <t>Hoàng Diệu</t>
   </si>
   <si>
-    <t>Nghệ An</t>
-  </si>
-  <si>
     <t>Quận 4</t>
   </si>
   <si>
@@ -277,9 +262,6 @@
     <t>5476548</t>
   </si>
   <si>
-    <t>Chưa tốt nghiệp</t>
-  </si>
-  <si>
     <t>Cao Thị B</t>
   </si>
   <si>
@@ -317,6 +299,45 @@
   </si>
   <si>
     <t>District</t>
+  </si>
+  <si>
+    <t>Số Năm</t>
+  </si>
+  <si>
+    <t>NYear</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Trần Văn C</t>
+  </si>
+  <si>
+    <t>01-05-1990</t>
+  </si>
+  <si>
+    <t>DTN</t>
+  </si>
+  <si>
+    <t>CTN</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>An Giang</t>
+  </si>
+  <si>
+    <t>Nghệ An</t>
+  </si>
+  <si>
+    <t>TP Hồ Chí Minh</t>
   </si>
 </sst>
 </file>
@@ -326,7 +347,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +414,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -446,7 +473,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,6 +487,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma 2" xfId="7"/>
@@ -772,11 +800,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA100"/>
+  <dimension ref="A1:AB100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -801,16 +829,16 @@
     <col min="18" max="18" width="25.140625" customWidth="1"/>
     <col min="19" max="19" width="24.140625" customWidth="1"/>
     <col min="20" max="20" width="16.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="23" width="20" customWidth="1"/>
-    <col min="24" max="24" width="18" customWidth="1"/>
-    <col min="25" max="25" width="26.7109375" customWidth="1"/>
-    <col min="26" max="26" width="16.85546875" customWidth="1"/>
-    <col min="27" max="27" width="32.85546875" customWidth="1"/>
+    <col min="21" max="22" width="14.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="20" customWidth="1"/>
+    <col min="25" max="25" width="18" customWidth="1"/>
+    <col min="26" max="26" width="26.7109375" customWidth="1"/>
+    <col min="27" max="27" width="16.85546875" customWidth="1"/>
+    <col min="28" max="28" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -833,7 +861,7 @@
         <v>39</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>33</v>
@@ -875,25 +903,28 @@
         <v>43</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" ht="22.5" customHeight="1">
+    <row r="2" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -958,270 +989,282 @@
         <v>26</v>
       </c>
       <c r="V2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4">
         <v>123456789</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="P3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="R3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="T3" s="4">
         <v>2015</v>
       </c>
-      <c r="U3" s="4">
-        <v>2020</v>
+      <c r="U3" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="V3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X3" s="4">
+        <v>26485</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>2022</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="W3" s="4">
-        <v>26485</v>
-      </c>
-      <c r="X3" s="4">
-        <v>2022</v>
-      </c>
-      <c r="Y3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Z3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="N4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="4" t="s">
+      <c r="P4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="R4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="T4" s="4">
         <v>2015</v>
       </c>
-      <c r="U4" s="4">
-        <v>2020</v>
+      <c r="U4" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="X4" s="4">
+        <v>89</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y4" s="4">
         <v>2022</v>
       </c>
-      <c r="Y4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="Z4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>59</v>
+      <c r="I5" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="4" t="s">
+      <c r="P5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="R5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="T5" s="4">
         <v>2015</v>
       </c>
-      <c r="U5" s="4">
-        <v>2020</v>
+      <c r="U5" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="V5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>2022</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="W5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X5" s="4">
-        <v>2022</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1249,13 +1292,13 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" s="4"/>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1278,8 +1321,9 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" s="4"/>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1307,8 +1351,9 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" s="4"/>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1336,8 +1381,9 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" s="4"/>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1365,8 +1411,9 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" s="4"/>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1394,8 +1441,9 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" s="4"/>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1423,8 +1471,9 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" s="4"/>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1452,8 +1501,9 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" s="4"/>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1481,8 +1531,9 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" s="4"/>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1510,8 +1561,9 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" s="4"/>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1539,8 +1591,9 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" s="4"/>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1568,8 +1621,9 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" s="4"/>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1597,8 +1651,9 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" s="4"/>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1626,8 +1681,9 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" s="4"/>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1655,8 +1711,9 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" s="4"/>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1684,8 +1741,9 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" s="4"/>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1713,8 +1771,9 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" s="4"/>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1742,8 +1801,9 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" s="4"/>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1771,8 +1831,9 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" s="4"/>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1800,8 +1861,9 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" s="4"/>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1829,8 +1891,9 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26" s="4"/>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1858,8 +1921,9 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AB27" s="4"/>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1887,8 +1951,9 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AB28" s="4"/>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1916,8 +1981,9 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AB29" s="4"/>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1945,8 +2011,9 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AB30" s="4"/>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1974,8 +2041,9 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AB31" s="4"/>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2003,8 +2071,9 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AB32" s="4"/>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2032,8 +2101,9 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AB33" s="4"/>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2061,8 +2131,9 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AB34" s="4"/>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2090,8 +2161,9 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35" s="4"/>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2119,8 +2191,9 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AB36" s="4"/>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2148,8 +2221,9 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AB37" s="4"/>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2177,8 +2251,9 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AB38" s="4"/>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2206,8 +2281,9 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AB39" s="4"/>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2235,8 +2311,9 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AB40" s="4"/>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2264,8 +2341,9 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AB41" s="4"/>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2293,8 +2371,9 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AB42" s="4"/>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2322,8 +2401,9 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AB43" s="4"/>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2351,8 +2431,9 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AB44" s="4"/>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2380,8 +2461,9 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AB45" s="4"/>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2409,8 +2491,9 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AB46" s="4"/>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2438,8 +2521,9 @@
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AB47" s="4"/>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2467,8 +2551,9 @@
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AB48" s="4"/>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2496,8 +2581,9 @@
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AB49" s="4"/>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2525,8 +2611,9 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AB50" s="4"/>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2554,8 +2641,9 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AB51" s="4"/>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2583,8 +2671,9 @@
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AB52" s="4"/>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2612,8 +2701,9 @@
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AB53" s="4"/>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2641,8 +2731,9 @@
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AB54" s="4"/>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2670,8 +2761,9 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AB55" s="4"/>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2699,8 +2791,9 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AB56" s="4"/>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2728,8 +2821,9 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AB57" s="4"/>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2757,8 +2851,9 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AB58" s="4"/>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2786,8 +2881,9 @@
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AB59" s="4"/>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2815,8 +2911,9 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AB60" s="4"/>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2844,8 +2941,9 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AB61" s="4"/>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2873,8 +2971,9 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AB62" s="4"/>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2902,8 +3001,9 @@
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AB63" s="4"/>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2931,8 +3031,9 @@
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AB64" s="4"/>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2960,8 +3061,9 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AB65" s="4"/>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2989,8 +3091,9 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AB66" s="4"/>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3018,8 +3121,9 @@
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AB67" s="4"/>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3047,8 +3151,9 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AB68" s="4"/>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3076,8 +3181,9 @@
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AB69" s="4"/>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3105,8 +3211,9 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
-    </row>
-    <row r="71" spans="1:27">
+      <c r="AB70" s="4"/>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3134,8 +3241,9 @@
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
-    </row>
-    <row r="72" spans="1:27">
+      <c r="AB71" s="4"/>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3163,8 +3271,9 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
-    </row>
-    <row r="73" spans="1:27">
+      <c r="AB72" s="4"/>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3192,8 +3301,9 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
-    </row>
-    <row r="74" spans="1:27">
+      <c r="AB73" s="4"/>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -3221,8 +3331,9 @@
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
-    </row>
-    <row r="75" spans="1:27">
+      <c r="AB74" s="4"/>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3250,8 +3361,9 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
-    </row>
-    <row r="76" spans="1:27">
+      <c r="AB75" s="4"/>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3279,8 +3391,9 @@
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
-    </row>
-    <row r="77" spans="1:27">
+      <c r="AB76" s="4"/>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -3308,8 +3421,9 @@
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
-    </row>
-    <row r="78" spans="1:27">
+      <c r="AB77" s="4"/>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3337,8 +3451,9 @@
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
-    </row>
-    <row r="79" spans="1:27">
+      <c r="AB78" s="4"/>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3366,8 +3481,9 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
-    </row>
-    <row r="80" spans="1:27">
+      <c r="AB79" s="4"/>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3395,8 +3511,9 @@
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
-    </row>
-    <row r="81" spans="1:27">
+      <c r="AB80" s="4"/>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3424,8 +3541,9 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
-    </row>
-    <row r="82" spans="1:27">
+      <c r="AB81" s="4"/>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3453,8 +3571,9 @@
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
-    </row>
-    <row r="83" spans="1:27">
+      <c r="AB82" s="4"/>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3482,8 +3601,9 @@
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
-    </row>
-    <row r="84" spans="1:27">
+      <c r="AB83" s="4"/>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3511,8 +3631,9 @@
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
-    </row>
-    <row r="85" spans="1:27">
+      <c r="AB84" s="4"/>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3540,8 +3661,9 @@
       <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
-    </row>
-    <row r="86" spans="1:27">
+      <c r="AB85" s="4"/>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3569,8 +3691,9 @@
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
-    </row>
-    <row r="87" spans="1:27">
+      <c r="AB86" s="4"/>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3598,8 +3721,9 @@
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
-    </row>
-    <row r="88" spans="1:27">
+      <c r="AB87" s="4"/>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3627,8 +3751,9 @@
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
-    </row>
-    <row r="89" spans="1:27">
+      <c r="AB88" s="4"/>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3656,8 +3781,9 @@
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
-    </row>
-    <row r="90" spans="1:27">
+      <c r="AB89" s="4"/>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3685,8 +3811,9 @@
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
-    </row>
-    <row r="91" spans="1:27">
+      <c r="AB90" s="4"/>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3714,8 +3841,9 @@
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
       <c r="AA91" s="4"/>
-    </row>
-    <row r="92" spans="1:27">
+      <c r="AB91" s="4"/>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3743,8 +3871,9 @@
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
       <c r="AA92" s="4"/>
-    </row>
-    <row r="93" spans="1:27">
+      <c r="AB92" s="4"/>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3772,8 +3901,9 @@
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
-    </row>
-    <row r="94" spans="1:27">
+      <c r="AB93" s="4"/>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3801,8 +3931,9 @@
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
       <c r="AA94" s="4"/>
-    </row>
-    <row r="95" spans="1:27">
+      <c r="AB94" s="4"/>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3830,8 +3961,9 @@
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
-    </row>
-    <row r="96" spans="1:27">
+      <c r="AB95" s="4"/>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3859,8 +3991,9 @@
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
-    </row>
-    <row r="97" spans="1:27">
+      <c r="AB96" s="4"/>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3888,8 +4021,9 @@
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
       <c r="AA97" s="4"/>
-    </row>
-    <row r="98" spans="1:27">
+      <c r="AB97" s="4"/>
+    </row>
+    <row r="98" spans="1:28">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3917,8 +4051,9 @@
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
       <c r="AA98" s="4"/>
-    </row>
-    <row r="99" spans="1:27">
+      <c r="AB98" s="4"/>
+    </row>
+    <row r="99" spans="1:28">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3946,8 +4081,9 @@
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
-    </row>
-    <row r="100" spans="1:27">
+      <c r="AB99" s="4"/>
+    </row>
+    <row r="100" spans="1:28">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3975,6 +4111,7 @@
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
+      <c r="AB100" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/FileImportData.xlsx
+++ b/FileImportData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
@@ -343,11 +343,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,7 +415,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -473,7 +486,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -485,9 +498,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma 2" xfId="7"/>
@@ -508,6 +522,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -556,7 +573,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,7 +608,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -804,38 +821,38 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" customWidth="1"/>
-    <col min="19" max="19" width="24.140625" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" customWidth="1"/>
-    <col min="21" max="22" width="14.140625" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="49.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="21.375" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
+    <col min="14" max="14" width="23.375" customWidth="1"/>
+    <col min="15" max="15" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.875" customWidth="1"/>
+    <col min="17" max="17" width="20.625" customWidth="1"/>
+    <col min="18" max="18" width="25.125" customWidth="1"/>
+    <col min="19" max="19" width="24.125" customWidth="1"/>
+    <col min="20" max="20" width="16.75" customWidth="1"/>
+    <col min="21" max="22" width="14.125" customWidth="1"/>
+    <col min="23" max="23" width="13.25" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
     <col min="25" max="25" width="18" customWidth="1"/>
-    <col min="26" max="26" width="26.7109375" customWidth="1"/>
-    <col min="27" max="27" width="16.85546875" customWidth="1"/>
-    <col min="28" max="28" width="32.85546875" customWidth="1"/>
+    <col min="26" max="26" width="26.75" customWidth="1"/>
+    <col min="27" max="27" width="16.875" customWidth="1"/>
+    <col min="28" max="28" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -1011,1607 +1028,1608 @@
       </c>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5">
         <v>123456789</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>2015</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="5">
         <v>26485</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="5">
         <v>2022</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>2015</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="5">
         <v>2022</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AA4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AB4" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>2015</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="5">
         <v>2022</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="Z5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AA5" s="6" t="s">
+      <c r="AA5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AB5" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
     </row>
     <row r="19" spans="1:28">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
     </row>
     <row r="24" spans="1:28">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
     </row>
     <row r="26" spans="1:28">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
     </row>
     <row r="28" spans="1:28">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
     </row>
     <row r="29" spans="1:28">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
     </row>
     <row r="30" spans="1:28">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
     </row>
     <row r="31" spans="1:28">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
     </row>
     <row r="32" spans="1:28">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
     </row>
     <row r="33" spans="1:28">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
     </row>
     <row r="34" spans="1:28">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
     </row>
     <row r="35" spans="1:28">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
     </row>
     <row r="36" spans="1:28">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
     </row>
     <row r="37" spans="1:28">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
     </row>
     <row r="38" spans="1:28">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
     </row>
     <row r="39" spans="1:28">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
     </row>
     <row r="40" spans="1:28">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
     </row>
     <row r="41" spans="1:28">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
     </row>
     <row r="42" spans="1:28">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
     </row>
     <row r="43" spans="1:28">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
     </row>
     <row r="44" spans="1:28">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
     </row>
     <row r="45" spans="1:28">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
     </row>
     <row r="46" spans="1:28">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
     </row>
     <row r="47" spans="1:28">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
     </row>
     <row r="48" spans="1:28">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
     </row>
     <row r="49" spans="1:28">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
     </row>
     <row r="50" spans="1:28">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
-      <c r="AA50" s="4"/>
-      <c r="AB50" s="4"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="4"/>

--- a/FileImportData.xlsx
+++ b/FileImportData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="136">
   <si>
     <t>STT</t>
   </si>
@@ -226,12 +226,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>Lờ Thị B</t>
-  </si>
-  <si>
     <t>21-06-1998</t>
   </si>
   <si>
@@ -338,16 +332,106 @@
   </si>
   <si>
     <t>TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A2</t>
+  </si>
+  <si>
+    <t>Lờ Thị B3</t>
+  </si>
+  <si>
+    <t>Trần Văn C4</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A5</t>
+  </si>
+  <si>
+    <t>Lờ Thị B6</t>
+  </si>
+  <si>
+    <t>Trần Văn C7</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A8</t>
+  </si>
+  <si>
+    <t>Lờ Thị B9</t>
+  </si>
+  <si>
+    <t>Trần Văn C10</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A11</t>
+  </si>
+  <si>
+    <t>Lờ Thị B12</t>
+  </si>
+  <si>
+    <t>Trần Văn C13</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A14</t>
+  </si>
+  <si>
+    <t>Lờ Thị B15</t>
+  </si>
+  <si>
+    <t>Trần Văn C16</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A17</t>
+  </si>
+  <si>
+    <t>Lờ Thị B18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,28 +491,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -472,7 +535,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -484,9 +547,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -498,16 +560,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="11">
     <cellStyle name="Comma 2" xfId="7"/>
     <cellStyle name="Comma 3" xfId="4"/>
     <cellStyle name="Excel Built-in TableStyleLight1" xfId="9"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="10"/>
     <cellStyle name="Normal 2" xfId="3"/>
@@ -522,9 +580,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -573,7 +628,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,7 +663,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -821,38 +876,38 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="24.625" customWidth="1"/>
-    <col min="7" max="7" width="22.25" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="21.875" customWidth="1"/>
-    <col min="10" max="10" width="49.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="21.375" customWidth="1"/>
-    <col min="13" max="13" width="19.875" customWidth="1"/>
-    <col min="14" max="14" width="23.375" customWidth="1"/>
-    <col min="15" max="15" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.875" customWidth="1"/>
-    <col min="17" max="17" width="20.625" customWidth="1"/>
-    <col min="18" max="18" width="25.125" customWidth="1"/>
-    <col min="19" max="19" width="24.125" customWidth="1"/>
-    <col min="20" max="20" width="16.75" customWidth="1"/>
-    <col min="21" max="22" width="14.125" customWidth="1"/>
-    <col min="23" max="23" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" customWidth="1"/>
+    <col min="18" max="18" width="25.140625" customWidth="1"/>
+    <col min="19" max="19" width="24.140625" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="21" max="22" width="14.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
     <col min="25" max="25" width="18" customWidth="1"/>
-    <col min="26" max="26" width="26.75" customWidth="1"/>
-    <col min="27" max="27" width="16.875" customWidth="1"/>
-    <col min="28" max="28" width="32.875" customWidth="1"/>
+    <col min="26" max="26" width="26.7109375" customWidth="1"/>
+    <col min="27" max="27" width="16.85546875" customWidth="1"/>
+    <col min="28" max="28" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -878,7 +933,7 @@
         <v>39</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>33</v>
@@ -920,7 +975,7 @@
         <v>43</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>50</v>
@@ -1006,7 +1061,7 @@
         <v>26</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>27</v>
@@ -1032,16 +1087,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>55</v>
@@ -1053,7 +1108,7 @@
         <v>57</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5">
@@ -1068,17 +1123,17 @@
       <c r="N3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>60</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>62</v>
@@ -1087,13 +1142,13 @@
         <v>2015</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X3" s="5">
         <v>26485</v>
@@ -1104,7 +1159,7 @@
       <c r="Z3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AA3" s="5" t="s">
         <v>65</v>
       </c>
       <c r="AB3" s="5" t="s">
@@ -1116,10 +1171,10 @@
         <v>68</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>53</v>
@@ -1128,7 +1183,7 @@
         <v>54</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>56</v>
@@ -1136,14 +1191,14 @@
       <c r="H4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>106</v>
+      <c r="I4" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>58</v>
@@ -1154,17 +1209,17 @@
       <c r="N4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>60</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>61</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>62</v>
@@ -1173,28 +1228,28 @@
         <v>2015</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y4" s="5">
         <v>2022</v>
       </c>
       <c r="Z4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AB4" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1202,32 +1257,32 @@
         <v>69</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>107</v>
+        <v>77</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>58</v>
@@ -1238,17 +1293,17 @@
       <c r="N5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>60</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>61</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>62</v>
@@ -1257,1379 +1312,2199 @@
         <v>2015</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>63</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y5" s="5">
         <v>2022</v>
       </c>
       <c r="Z5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA5" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="AB5" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
+      <c r="K6" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T6" s="5">
+        <v>2015</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" s="5">
+        <v>26485</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>2022</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" s="5">
+        <v>2015</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>2022</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="5">
+        <v>2015</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>2022</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
+      <c r="K9" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="5">
+        <v>2015</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="X9" s="5">
+        <v>26485</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>2022</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T10" s="5">
+        <v>2015</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>2022</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" s="5">
+        <v>2015</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>2022</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
+      <c r="K12" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="5">
+        <v>2015</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="X12" s="5">
+        <v>26485</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>2022</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T13" s="5">
+        <v>2015</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>2022</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14" s="5">
+        <v>2015</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>2022</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
+      <c r="K15" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" s="5">
+        <v>2015</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="X15" s="5">
+        <v>26485</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>2022</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T16" s="5">
+        <v>2015</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>2022</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T17" s="5">
+        <v>2015</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>2022</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
+      <c r="K18" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" s="5">
+        <v>2015</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="X18" s="5">
+        <v>26485</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>2022</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="19" spans="1:28">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T19" s="5">
+        <v>2015</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>2022</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
+      <c r="K20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" s="5">
+        <v>2015</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>2022</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:28">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
     </row>
     <row r="26" spans="1:28">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
     </row>
     <row r="28" spans="1:28">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
     </row>
     <row r="29" spans="1:28">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
     </row>
     <row r="30" spans="1:28">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
     </row>
     <row r="31" spans="1:28">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
     </row>
     <row r="32" spans="1:28">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
     </row>
     <row r="33" spans="1:28">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
     </row>
     <row r="34" spans="1:28">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
     </row>
     <row r="35" spans="1:28">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
     </row>
     <row r="36" spans="1:28">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
     </row>
     <row r="37" spans="1:28">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
     </row>
     <row r="38" spans="1:28">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
     </row>
     <row r="39" spans="1:28">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
     </row>
     <row r="40" spans="1:28">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
     </row>
     <row r="41" spans="1:28">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
     </row>
     <row r="42" spans="1:28">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
     </row>
     <row r="43" spans="1:28">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
     </row>
     <row r="44" spans="1:28">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
     </row>
     <row r="45" spans="1:28">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
     </row>
     <row r="46" spans="1:28">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
     </row>
     <row r="47" spans="1:28">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
     </row>
     <row r="48" spans="1:28">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
     </row>
     <row r="49" spans="1:28">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
     </row>
     <row r="50" spans="1:28">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="4"/>
@@ -4136,8 +5011,23 @@
     <hyperlink ref="O3" r:id="rId1"/>
     <hyperlink ref="O4" r:id="rId2"/>
     <hyperlink ref="O5" r:id="rId3"/>
+    <hyperlink ref="O6" r:id="rId4"/>
+    <hyperlink ref="O7" r:id="rId5"/>
+    <hyperlink ref="O8" r:id="rId6"/>
+    <hyperlink ref="O9" r:id="rId7"/>
+    <hyperlink ref="O10" r:id="rId8"/>
+    <hyperlink ref="O11" r:id="rId9"/>
+    <hyperlink ref="O12" r:id="rId10"/>
+    <hyperlink ref="O13" r:id="rId11"/>
+    <hyperlink ref="O14" r:id="rId12"/>
+    <hyperlink ref="O15" r:id="rId13"/>
+    <hyperlink ref="O16" r:id="rId14"/>
+    <hyperlink ref="O17" r:id="rId15"/>
+    <hyperlink ref="O18" r:id="rId16"/>
+    <hyperlink ref="O19" r:id="rId17"/>
+    <hyperlink ref="O20" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/FileImportData.xlsx
+++ b/FileImportData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="139">
   <si>
     <t>STT</t>
   </si>
@@ -422,12 +422,21 @@
   </si>
   <si>
     <t>Lờ Thị B18</t>
+  </si>
+  <si>
+    <t>AddressNotf</t>
+  </si>
+  <si>
+    <t>Địa chỉ nhận thông báo</t>
+  </si>
+  <si>
+    <t>HCM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -581,6 +590,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -628,7 +640,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,7 +675,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -872,45 +884,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB100"/>
+  <dimension ref="A1:AC100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" customWidth="1"/>
-    <col min="19" max="19" width="24.140625" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" customWidth="1"/>
-    <col min="21" max="22" width="14.140625" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="49.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="21.375" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
+    <col min="14" max="14" width="23.375" customWidth="1"/>
+    <col min="15" max="15" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.875" customWidth="1"/>
+    <col min="17" max="17" width="20.625" customWidth="1"/>
+    <col min="18" max="18" width="25.125" customWidth="1"/>
+    <col min="19" max="19" width="24.125" customWidth="1"/>
+    <col min="20" max="20" width="16.75" customWidth="1"/>
+    <col min="21" max="22" width="14.125" customWidth="1"/>
+    <col min="23" max="23" width="13.25" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
     <col min="25" max="25" width="18" customWidth="1"/>
-    <col min="26" max="26" width="26.7109375" customWidth="1"/>
-    <col min="27" max="27" width="16.85546875" customWidth="1"/>
-    <col min="28" max="28" width="32.85546875" customWidth="1"/>
+    <col min="26" max="26" width="26.75" customWidth="1"/>
+    <col min="27" max="27" width="16.875" customWidth="1"/>
+    <col min="28" max="28" width="32.875" customWidth="1"/>
+    <col min="29" max="29" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -995,8 +1008,11 @@
       <c r="AB1" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1">
+      <c r="AC1" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1081,8 +1097,11 @@
       <c r="AB2" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="AC2" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1165,8 +1184,11 @@
       <c r="AB3" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -1251,8 +1273,11 @@
       <c r="AB4" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
@@ -1335,8 +1360,11 @@
       <c r="AB5" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -1419,8 +1447,11 @@
       <c r="AB6" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -1505,8 +1536,11 @@
       <c r="AB7" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -1589,8 +1623,11 @@
       <c r="AB8" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -1673,8 +1710,11 @@
       <c r="AB9" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -1759,8 +1799,11 @@
       <c r="AB10" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="5" t="s">
         <v>111</v>
       </c>
@@ -1843,8 +1886,11 @@
       <c r="AB11" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="5" t="s">
         <v>95</v>
       </c>
@@ -1927,8 +1973,11 @@
       <c r="AB12" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="5" t="s">
         <v>112</v>
       </c>
@@ -2013,8 +2062,11 @@
       <c r="AB13" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="5" t="s">
         <v>113</v>
       </c>
@@ -2097,8 +2149,11 @@
       <c r="AB14" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="5" t="s">
         <v>114</v>
       </c>
@@ -2181,8 +2236,11 @@
       <c r="AB15" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="5" t="s">
         <v>115</v>
       </c>
@@ -2267,8 +2325,11 @@
       <c r="AB16" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" s="5" t="s">
         <v>101</v>
       </c>
@@ -2351,8 +2412,11 @@
       <c r="AB17" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" s="5" t="s">
         <v>116</v>
       </c>
@@ -2435,8 +2499,11 @@
       <c r="AB18" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="5" t="s">
         <v>117</v>
       </c>
@@ -2521,8 +2588,11 @@
       <c r="AB19" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AC19" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="5" t="s">
         <v>118</v>
       </c>
@@ -2605,8 +2675,11 @@
       <c r="AB20" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2635,8 +2708,9 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21" s="5"/>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2666,7 +2740,7 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:29">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2696,7 +2770,7 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:29">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2726,7 +2800,7 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:29">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2756,7 +2830,7 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:29">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2786,7 +2860,7 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:29">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2816,7 +2890,7 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:29">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2846,7 +2920,7 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:29">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2876,7 +2950,7 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:29">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2906,7 +2980,7 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:29">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2936,7 +3010,7 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:29">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
